--- a/ExcelTables/__tables__.xlsx
+++ b/ExcelTables/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\Visual Studio\AOGame\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6892FDC7-F986-4E83-A86C-A4EF284C6E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37BAFF-0BD4-4BD5-881C-B7A1A8E63C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,11 +131,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TbItemData</t>
+    <t>ItemCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TbUnitData</t>
+    <t>UnitCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelTables/__tables__.xlsx
+++ b/ExcelTables/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\Visual Studio\AOGame\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37BAFF-0BD4-4BD5-881C-B7A1A8E63C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB0312-EC4B-4F4F-BF9A-18F77459DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>UnitCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map.TbMaps</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -210,74 +222,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,7 +241,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -547,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,6 +637,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTables/__tables__.xlsx
+++ b/ExcelTables/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\Visual Studio\AOGame\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB0312-EC4B-4F4F-BF9A-18F77459DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F184015-1844-405D-ABAE-FFA75B3E2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -148,6 +148,29 @@
   </si>
   <si>
     <t>Map.TbMaps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.TbSkills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusCfg</t>
+  </si>
+  <si>
+    <t>Status.TbStatuses</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,6 +245,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -241,7 +332,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -491,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,6 +742,34 @@
         <v>37</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
